--- a/source/metadata/design_factors.xlsx
+++ b/source/metadata/design_factors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\scotland.gov.uk\dc1\FS4_Home\U442427\SHSLocalAuthoritiesProject\metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\scotland.gov.uk\dc1\fs4_home\U442427\SHSLocalAuthoritiesProject\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,10 +44,10 @@
     <t>2009-2010</t>
   </si>
   <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>factor</t>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Factor</t>
   </si>
 </sst>
 </file>
@@ -367,7 +367,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
